--- a/data/trans_bre/P16A04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,51%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>266,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,0%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,19; 1,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 3,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 3,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,04; 2,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,43; 162,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,56; 335,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,27; 1470,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,63; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>185,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>164,24%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 3,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 3,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,67; 1,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 3,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,17; 714,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,2; 199,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,02; 59,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,35; 6144,35</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>163,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,3%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 2,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 1,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 1,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 2,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,16; 777,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,2; 130,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,93; 123,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,78; 136,83</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,76%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,95; 1,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 1,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 0,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 4,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,65; 152,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,14; 92,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,86; 40,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,92; 229,67</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,43%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,88%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,63%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,68%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,45; 1,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,76; 1,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 3,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 3,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,17; 65,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,82; 73,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,02; 304,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,76; 187,99</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,72%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; 1,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,78; 0,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 2,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 2,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,61; 71,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,08; 17,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,45; 210,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,75; 137,27</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,58%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,77%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 1,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 0,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 0,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 1,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,59; 76,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,93; 39,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,1; 58,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 92,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-9,0%</t>
+          <t>18,72%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 2,4</t>
+          <t>-2,92; 3,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-95,63; —</t>
+          <t>-94,44; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>164,24%</t>
+          <t>130,5%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 3,18</t>
+          <t>-1,03; 2,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-61,35; 6144,35</t>
+          <t>-69,04; 5040,45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>14,81%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 2,01</t>
+          <t>-1,73; 2,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-47,78; 136,83</t>
+          <t>-46,39; 148,82</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>39,76%</t>
+          <t>63,84%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 4,56</t>
+          <t>-0,5; 4,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,92; 229,67</t>
+          <t>-21,17; 380,25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>56,68%</t>
+          <t>54,76%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 3,02</t>
+          <t>-0,36; 3,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 187,99</t>
+          <t>-12,07; 178,1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,2%</t>
+          <t>-6,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-37,62%</t>
+          <t>-52,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>33,75%</t>
+          <t>-14,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>33,72%</t>
+          <t>-12,08%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,58</t>
+          <t>-2,85; 2,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 0,43</t>
+          <t>-7,31; 0,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,28</t>
+          <t>-2,91; 2,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 2,68</t>
+          <t>-2,8; 1,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,61; 71,65</t>
+          <t>-63,06; 134,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-67,08; 17,95</t>
+          <t>-82,09; 18,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,45; 210,2</t>
+          <t>-73,72; 187,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 137,27</t>
+          <t>-70,76; 67,84</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>23,58%</t>
+          <t>-16,4%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>-14,07%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>295,83%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>52,53%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-4,46; 2,39</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 2,15</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 4,08</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 3,75</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-72,25; 127,16</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-74,1; 96,42</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-37,93; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-24,24; 211,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>23,58%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10,76%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>40,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-0,29; 1,15</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-0,86; 0,93</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-0,47; 0,99</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 1,75</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 1,75</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-14,59; 76,88</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-24,93; 39,13</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-20,1; 58,03</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 92,03</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 97,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16A04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,38</t>
+          <t>-2,02; 1,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 3,54</t>
+          <t>-0,54; 3,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,74</t>
+          <t>0,32; 3,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 3,34</t>
+          <t>-2,73; 3,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-74,43; 162,83</t>
+          <t>-72,57; 148,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,56; 335,29</t>
+          <t>-24,02; 353,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 1470,12</t>
+          <t>-19,95; 1540,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-94,44; —</t>
+          <t>-92,12; 658,49</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,23</t>
+          <t>0,31; 3,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 3,85</t>
+          <t>-0,46; 3,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,19</t>
+          <t>-2,64; 1,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,84</t>
+          <t>-0,74; 3,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,17; 714,66</t>
+          <t>7,4; 716,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,2; 199,96</t>
+          <t>-15,52; 211,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-61,02; 59,91</t>
+          <t>-61,06; 57,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-69,04; 5040,45</t>
+          <t>-57,16; 5479,95</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 2,5</t>
+          <t>0,06; 2,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 1,97</t>
+          <t>-1,4; 1,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,64</t>
+          <t>-1,86; 1,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 2,11</t>
+          <t>-1,61; 1,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 777,73</t>
+          <t>-9,84; 864,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-46,2; 130,42</t>
+          <t>-45,42; 127,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-56,93; 123,99</t>
+          <t>-60,64; 113,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-46,39; 148,82</t>
+          <t>-47,88; 137,41</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 1,22</t>
+          <t>-1,66; 1,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 1,03</t>
+          <t>-2,02; 1,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 0,17</t>
+          <t>-2,43; 0,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 4,14</t>
+          <t>-0,35; 4,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-77,65; 152,83</t>
+          <t>-74,65; 187,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,14; 92,23</t>
+          <t>-71,02; 103,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-90,86; 40,77</t>
+          <t>-90,64; 35,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 380,25</t>
+          <t>-13,61; 432,41</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 1,29</t>
+          <t>-3,44; 1,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 1,08</t>
+          <t>-3,8; 0,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,49</t>
+          <t>-0,64; 3,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 3,0</t>
+          <t>-0,4; 3,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-73,17; 65,96</t>
+          <t>-74,83; 74,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-77,82; 73,89</t>
+          <t>-80,96; 59,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-33,02; 304,96</t>
+          <t>-25,54; 385,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 178,1</t>
+          <t>-12,63; 205,87</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 2,26</t>
+          <t>-2,62; 2,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 0,25</t>
+          <t>-7,73; 0,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,31</t>
+          <t>-3,04; 1,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 1,44</t>
+          <t>-2,95; 1,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-63,06; 134,1</t>
+          <t>-63,47; 134,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-82,09; 18,62</t>
+          <t>-82,1; 12,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-73,72; 187,12</t>
+          <t>-73,82; 176,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-70,76; 67,84</t>
+          <t>-74,24; 72,79</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 2,39</t>
+          <t>-4,55; 2,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 2,15</t>
+          <t>-4,67; 2,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,03; 4,08</t>
+          <t>0,28; 4,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,75</t>
+          <t>-0,81; 3,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-72,25; 127,16</t>
+          <t>-71,94; 130,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-74,1; 96,42</t>
+          <t>-69,27; 129,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-37,93; —</t>
+          <t>-36,82; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-24,24; 211,75</t>
+          <t>-20,2; 208,73</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,15</t>
+          <t>-0,29; 1,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,93</t>
+          <t>-0,82; 0,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,99</t>
+          <t>-0,47; 0,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 1,75</t>
+          <t>0,01; 1,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 76,88</t>
+          <t>-13,36; 80,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 39,13</t>
+          <t>-25,03; 37,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 58,03</t>
+          <t>-20,14; 55,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 97,52</t>
+          <t>0,25; 106,98</t>
         </is>
       </c>
     </row>
